--- a/python/master_results.xlsx
+++ b/python/master_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
   <si>
     <t>Group</t>
   </si>
@@ -55,10 +55,16 @@
     <t>107.0</t>
   </si>
   <si>
+    <t>110.0</t>
+  </si>
+  <si>
     <t>111.0</t>
   </si>
   <si>
     <t>112.0</t>
+  </si>
+  <si>
+    <t>204.0</t>
   </si>
   <si>
     <t>207.0</t>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,25 +543,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>-5.342463388668454</v>
+        <v>-4.261182565188297</v>
       </c>
       <c r="D2">
-        <v>7.0436946342519</v>
+        <v>6.4870486816204</v>
       </c>
       <c r="E2">
-        <v>1.584669289297939</v>
+        <v>1.598688597277492</v>
       </c>
       <c r="F2">
-        <v>9.090337092916895</v>
+        <v>4.847357902557373</v>
       </c>
       <c r="G2">
-        <v>7.371998627577457</v>
+        <v>21.13147021800995</v>
       </c>
       <c r="H2">
-        <v>16.46233572049436</v>
+        <v>25.97882812056733</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -563,25 +569,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>0.5512079845200846</v>
+        <v>0.9349279568782385</v>
       </c>
       <c r="D3">
-        <v>0.525933162918751</v>
+        <v>0.8973237666027684</v>
       </c>
       <c r="E3">
-        <v>0.2865963016127936</v>
+        <v>0.3225770141279943</v>
       </c>
       <c r="F3">
-        <v>11.53339180181654</v>
+        <v>3.71758181673515</v>
       </c>
       <c r="G3">
-        <v>13.82230043860948</v>
+        <v>18.15129454693932</v>
       </c>
       <c r="H3">
-        <v>24.27911439732385</v>
+        <v>18.98156310849564</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -589,25 +595,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>-6.998159085689096</v>
+        <v>-6.460005880809252</v>
       </c>
       <c r="D4">
-        <v>6.000747590511628</v>
+        <v>5.019726523328758</v>
       </c>
       <c r="E4">
-        <v>1.000564413360321</v>
+        <v>0.7594438353318083</v>
       </c>
       <c r="F4">
-        <v>0.4452748299767978</v>
+        <v>0.2294719980090178</v>
       </c>
       <c r="G4">
-        <v>0.3765051938527696</v>
+        <v>0.3269983173745118</v>
       </c>
       <c r="H4">
-        <v>1.913008459615797</v>
+        <v>1.884733368842894</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -615,25 +621,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>-4.477061177864249</v>
+        <v>-3.079236066456841</v>
       </c>
       <c r="D5">
-        <v>8.452803936880326</v>
+        <v>8.450033084734164</v>
       </c>
       <c r="E5">
-        <v>1.999903510190264</v>
+        <v>1.998100440873204</v>
       </c>
       <c r="F5">
-        <v>37.78807142939722</v>
+        <v>17.71616533638353</v>
       </c>
       <c r="G5">
-        <v>43.82573484410683</v>
+        <v>37.99284109162234</v>
       </c>
       <c r="H5">
-        <v>81.61380283625151</v>
+        <v>43.79872679200024</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -641,25 +647,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>1.06760139027325E-55</v>
+        <v>3.59516054791697E-13</v>
       </c>
       <c r="D6">
-        <v>9.554817924096929E-21</v>
+        <v>2.508161010785226E-06</v>
       </c>
       <c r="E6">
-        <v>1.884324270544966E-37</v>
+        <v>1.212400822146698E-11</v>
       </c>
       <c r="F6">
-        <v>7.215448943577138E-66</v>
+        <v>3.412591561640245E-22</v>
       </c>
       <c r="G6">
-        <v>1.065545082557591E-75</v>
+        <v>5.653603304124362E-24</v>
       </c>
       <c r="H6">
-        <v>1.062791435198949E-71</v>
+        <v>1.506748581004456E-22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -667,25 +673,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>-4.92758383730182</v>
+        <v>-4.2799847315063</v>
       </c>
       <c r="D7">
-        <v>6.361073580620403</v>
+        <v>6.551311467631035</v>
       </c>
       <c r="E7">
-        <v>1.169035228243135</v>
+        <v>1.792057190911051</v>
       </c>
       <c r="F7">
-        <v>2.598827182472347</v>
+        <v>1.50566247610988</v>
       </c>
       <c r="G7">
-        <v>2.03759910070798</v>
+        <v>0.892565344180579</v>
       </c>
       <c r="H7">
-        <v>4.636426283180326</v>
+        <v>2.398227820290459</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -693,25 +699,25 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.1062409149692832</v>
+        <v>0.08981506399187462</v>
       </c>
       <c r="D8">
-        <v>0.07303108774936962</v>
+        <v>0.115318350870274</v>
       </c>
       <c r="E8">
-        <v>0.09682356531305474</v>
+        <v>0.09996487952460352</v>
       </c>
       <c r="F8">
-        <v>0.1448001987623347</v>
+        <v>0.08877004024345922</v>
       </c>
       <c r="G8">
-        <v>0.005017360323727144</v>
+        <v>0.01081381931928755</v>
       </c>
       <c r="H8">
-        <v>0.1440666230899779</v>
+        <v>0.09448913547279658</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -719,25 +725,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>-5.159934997074831</v>
+        <v>-4.415710992746964</v>
       </c>
       <c r="D9">
-        <v>6.205543248673024</v>
+        <v>6.333974426079559</v>
       </c>
       <c r="E9">
-        <v>1.001242390190264</v>
+        <v>1.622860842034942</v>
       </c>
       <c r="F9">
-        <v>2.265493216312522</v>
+        <v>1.327230055083552</v>
       </c>
       <c r="G9">
-        <v>2.025127137598016</v>
+        <v>0.8766428930040487</v>
       </c>
       <c r="H9">
-        <v>4.304292726071651</v>
+        <v>2.2038729480876</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -745,25 +751,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>-4.692778071103222</v>
+        <v>-4.144207665002209</v>
       </c>
       <c r="D10">
-        <v>6.508479621586917</v>
+        <v>6.698251704601349</v>
       </c>
       <c r="E10">
-        <v>1.375233213360321</v>
+        <v>1.907630287485874</v>
       </c>
       <c r="F10">
-        <v>2.828803410461846</v>
+        <v>1.600993242690015</v>
       </c>
       <c r="G10">
-        <v>2.04645619458521</v>
+        <v>0.9108429091686325</v>
       </c>
       <c r="H10">
-        <v>4.874681621299921</v>
+        <v>2.511836151858648</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -771,25 +777,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>0.004988346696993522</v>
+        <v>0.9429090947384353</v>
       </c>
       <c r="D11">
-        <v>0.0026190051205392</v>
+        <v>0.713253674015955</v>
       </c>
       <c r="E11">
-        <v>9.022823428149604E-06</v>
+        <v>0.5919974030792359</v>
       </c>
       <c r="F11">
-        <v>9.477067593129511E-07</v>
+        <v>0.3361276601605777</v>
       </c>
       <c r="G11">
-        <v>5.107122993059981E-05</v>
+        <v>0.9856291527840982</v>
       </c>
       <c r="H11">
-        <v>1.424633963499831E-06</v>
+        <v>0.3542672192459647</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -797,25 +803,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>-5.210287521293613</v>
+        <v>-5.175558298580954</v>
       </c>
       <c r="D12">
-        <v>7.161414484399915</v>
+        <v>7.140662231167958</v>
       </c>
       <c r="E12">
-        <v>1.756013587343062</v>
+        <v>1.753039461387501</v>
       </c>
       <c r="F12">
-        <v>1.580790190518883</v>
+        <v>1.638449101652051</v>
       </c>
       <c r="G12">
-        <v>0.5138028033423688</v>
+        <v>0.4176330132530564</v>
       </c>
       <c r="H12">
-        <v>2.094592993861252</v>
+        <v>2.056082114905107</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -823,25 +829,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>0.1135452772641047</v>
+        <v>0.1143475340420795</v>
       </c>
       <c r="D13">
-        <v>0.1690525412163892</v>
+        <v>0.1794481231402744</v>
       </c>
       <c r="E13">
-        <v>0.1480347281500312</v>
+        <v>0.1612133431706314</v>
       </c>
       <c r="F13">
-        <v>0.09448140860863449</v>
+        <v>0.1084439233687552</v>
       </c>
       <c r="G13">
-        <v>0.04814722502802844</v>
+        <v>0.04179208748818324</v>
       </c>
       <c r="H13">
-        <v>0.09410203562088729</v>
+        <v>0.1102534337112272</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -849,25 +855,25 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>-5.465079114238019</v>
+        <v>-5.381510135191228</v>
       </c>
       <c r="D14">
-        <v>6.77081052028711</v>
+        <v>6.799014465786786</v>
       </c>
       <c r="E14">
-        <v>1.357902013360321</v>
+        <v>1.428135842630326</v>
       </c>
       <c r="F14">
-        <v>1.351456784168799</v>
+        <v>1.429996912999558</v>
       </c>
       <c r="G14">
-        <v>0.3765051938527696</v>
+        <v>0.3269983173745118</v>
       </c>
       <c r="H14">
-        <v>1.913008459615797</v>
+        <v>1.884733368842894</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -875,25 +881,25 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>-4.976467863181147</v>
+        <v>-4.976084133057406</v>
       </c>
       <c r="D15">
-        <v>7.543214021642449</v>
+        <v>7.482144616428737</v>
       </c>
       <c r="E15">
-        <v>1.998754493360321</v>
+        <v>1.977274583200179</v>
       </c>
       <c r="F15">
-        <v>1.735304025617725</v>
+        <v>1.813268965350491</v>
       </c>
       <c r="G15">
-        <v>0.5978417877009872</v>
+        <v>0.4797406696888895</v>
       </c>
       <c r="H15">
-        <v>2.318243799063301</v>
+        <v>2.29300963503938</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -901,25 +907,25 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>2.092395653803722E-07</v>
+        <v>0.76712404064383</v>
       </c>
       <c r="D16">
-        <v>0.0007359309669977193</v>
+        <v>0.98335452020636</v>
       </c>
       <c r="E16">
-        <v>1.174559719792002E-08</v>
+        <v>0.2519238658148889</v>
       </c>
       <c r="F16">
-        <v>2.67181473100208E-09</v>
+        <v>0.89111337565374</v>
       </c>
       <c r="G16">
-        <v>5.158254846794883E-08</v>
+        <v>0.4421394724280248</v>
       </c>
       <c r="H16">
-        <v>1.409273570025639E-08</v>
+        <v>0.4297691122733973</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -927,25 +933,25 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>-5.252081641902755</v>
+        <v>-4.360227665997012</v>
       </c>
       <c r="D17">
-        <v>6.607272827583948</v>
+        <v>6.81481102334153</v>
       </c>
       <c r="E17">
-        <v>1.222595912304124</v>
+        <v>1.914352541021925</v>
       </c>
       <c r="F17">
-        <v>3.848192942566464</v>
+        <v>0.2294719980090178</v>
       </c>
       <c r="G17">
-        <v>5.429843776971502</v>
+        <v>4.914272949864699</v>
       </c>
       <c r="H17">
-        <v>9.278036719537967</v>
+        <v>5.143744947873717</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -953,25 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>0.1243384395505215</v>
-      </c>
-      <c r="D18">
-        <v>0.1257435090726387</v>
-      </c>
-      <c r="E18">
-        <v>0.1329852216938446</v>
-      </c>
-      <c r="F18">
-        <v>0.2140261685605291</v>
-      </c>
-      <c r="G18">
-        <v>0.0285111756367471</v>
-      </c>
-      <c r="H18">
-        <v>0.2064952887922754</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -979,25 +967,25 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>-5.512108883448384</v>
+        <v>-4.360227665997012</v>
       </c>
       <c r="D19">
-        <v>6.350329427176163</v>
+        <v>6.81481102334153</v>
       </c>
       <c r="E19">
-        <v>1.000564413360321</v>
+        <v>1.914352541021925</v>
       </c>
       <c r="F19">
-        <v>3.34145269248424</v>
+        <v>0.2294719980090178</v>
       </c>
       <c r="G19">
-        <v>5.34390726446196</v>
+        <v>4.914272949864699</v>
       </c>
       <c r="H19">
-        <v>8.787931448629498</v>
+        <v>5.143744947873717</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1005,25 +993,25 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>-4.971678735005584</v>
+        <v>-4.360227665997012</v>
       </c>
       <c r="D20">
-        <v>6.902257508207343</v>
+        <v>6.81481102334153</v>
       </c>
       <c r="E20">
-        <v>1.514035846934691</v>
+        <v>1.914352541021925</v>
       </c>
       <c r="F20">
-        <v>4.170593600270161</v>
+        <v>0.2294719980090178</v>
       </c>
       <c r="G20">
-        <v>5.473526735390381</v>
+        <v>4.914272949864699</v>
       </c>
       <c r="H20">
-        <v>9.643381811203877</v>
+        <v>5.143744947873717</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1031,25 +1019,25 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>7.141667098343835E-06</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.0001554553568869071</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>9.503052714182109E-09</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>4.29214160355472E-11</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>7.409623063005823E-12</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2.510070944134567E-09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1057,25 +1045,25 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>-4.619086981942135</v>
+        <v>-4.37803775456667</v>
       </c>
       <c r="D22">
-        <v>7.022419765664139</v>
+        <v>6.639654261902812</v>
       </c>
       <c r="E22">
-        <v>1.810389133787901</v>
+        <v>1.810774557279727</v>
       </c>
       <c r="F22">
-        <v>6.049881818577566</v>
+        <v>1.434736194246435</v>
       </c>
       <c r="G22">
-        <v>1.837137132747234</v>
+        <v>1.931561723540402</v>
       </c>
       <c r="H22">
-        <v>7.8870189513248</v>
+        <v>3.366297917786838</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1083,25 +1071,25 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>0.0862428843531573</v>
+        <v>0.1170189372978338</v>
       </c>
       <c r="D23">
-        <v>0.1340625033631677</v>
+        <v>0.1530566161927207</v>
       </c>
       <c r="E23">
-        <v>0.1318584505956002</v>
+        <v>0.1348353221661785</v>
       </c>
       <c r="F23">
-        <v>0.3209960552345668</v>
+        <v>0.1025410844210465</v>
       </c>
       <c r="G23">
-        <v>0.04035896364264037</v>
+        <v>0.02789258882967308</v>
       </c>
       <c r="H23">
-        <v>0.3113837921156618</v>
+        <v>0.09011048741782157</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1109,25 +1097,25 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>-4.793869454733446</v>
+        <v>-4.550572429158958</v>
       </c>
       <c r="D24">
-        <v>6.697339783146753</v>
+        <v>6.410794117256805</v>
       </c>
       <c r="E24">
-        <v>1.490271510190264</v>
+        <v>1.57272708878367</v>
       </c>
       <c r="F24">
-        <v>5.37431280331269</v>
+        <v>1.283673047430277</v>
       </c>
       <c r="G24">
-        <v>1.71944932987109</v>
+        <v>1.857452791046707</v>
       </c>
       <c r="H24">
-        <v>7.238129103247054</v>
+        <v>3.232118099327148</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1135,25 +1123,25 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>-4.477061177864249</v>
+        <v>-4.170752279791484</v>
       </c>
       <c r="D25">
-        <v>7.340443328893244</v>
+        <v>6.970660951498224</v>
       </c>
       <c r="E25">
-        <v>1.999578390190264</v>
+        <v>1.985642784687522</v>
       </c>
       <c r="F25">
-        <v>6.573846883776023</v>
+        <v>1.594357408973489</v>
       </c>
       <c r="G25">
-        <v>1.906583674154965</v>
+        <v>1.962829348730152</v>
       </c>
       <c r="H25">
-        <v>8.423941422191227</v>
+        <v>3.521676068449597</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1161,25 +1149,25 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>6.815940384397709E-05</v>
+        <v>0.5111817693702092</v>
       </c>
       <c r="D26">
-        <v>0.60565183564372</v>
+        <v>0.8169755158088274</v>
       </c>
       <c r="E26">
-        <v>2.152957847028403E-06</v>
+        <v>0.1397737244451547</v>
       </c>
       <c r="F26">
-        <v>7.525288986679318E-05</v>
+        <v>0.1403059768962312</v>
       </c>
       <c r="G26">
-        <v>1.075911724109544E-05</v>
+        <v>0.03349698201243802</v>
       </c>
       <c r="H26">
-        <v>0.0001024461135804175</v>
+        <v>0.2403388008246652</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1187,25 +1175,25 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>-4.533703947023223</v>
+        <v>-5.250431058024009</v>
       </c>
       <c r="D27">
-        <v>6.979113403375623</v>
+        <v>7.290705082926303</v>
       </c>
       <c r="E27">
-        <v>1.868073207866288</v>
+        <v>1.56082049256837</v>
       </c>
       <c r="F27">
-        <v>3.76301842413541</v>
+        <v>2.316983415842019</v>
       </c>
       <c r="G27">
-        <v>7.438871010059279</v>
+        <v>2.324110983099208</v>
       </c>
       <c r="H27">
-        <v>11.20188943419469</v>
+        <v>4.641094398941227</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1213,25 +1201,25 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>0.03600419227594666</v>
+        <v>0.1302988358900596</v>
       </c>
       <c r="D28">
-        <v>0.1020463971884908</v>
+        <v>0.2629380760864743</v>
       </c>
       <c r="E28">
-        <v>0.09519420169002707</v>
+        <v>0.175962866848034</v>
       </c>
       <c r="F28">
-        <v>0.1397397538917866</v>
+        <v>0.1728967840595245</v>
       </c>
       <c r="G28">
-        <v>0.09074934792559518</v>
+        <v>0.1194674852305114</v>
       </c>
       <c r="H28">
-        <v>0.1489639807805763</v>
+        <v>0.2689875116124553</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1239,25 +1227,25 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>-4.60198171525076</v>
+        <v>-5.432354545297291</v>
       </c>
       <c r="D29">
-        <v>6.759627569362276</v>
+        <v>7.030661381618346</v>
       </c>
       <c r="E29">
-        <v>1.650893446934691</v>
+        <v>1.372897638346672</v>
       </c>
       <c r="F29">
-        <v>3.475789694260907</v>
+        <v>2.037268933862662</v>
       </c>
       <c r="G29">
-        <v>7.236368372038336</v>
+        <v>2.033298802180185</v>
       </c>
       <c r="H29">
-        <v>10.90021842213572</v>
+        <v>4.070567736042847</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1265,25 +1253,25 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>-4.477144765259978</v>
+        <v>-5.09683658563667</v>
       </c>
       <c r="D30">
-        <v>7.17232278294824</v>
+        <v>7.845213601266948</v>
       </c>
       <c r="E30">
-        <v>1.997663510190264</v>
+        <v>1.962753413660825</v>
       </c>
       <c r="F30">
-        <v>3.957244777488436</v>
+        <v>2.557383233797977</v>
       </c>
       <c r="G30">
-        <v>7.595438506895224</v>
+        <v>2.417463934094136</v>
       </c>
       <c r="H30">
-        <v>11.51643391916001</v>
+        <v>4.911239162696642</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1291,25 +1279,25 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>0.005061738281202368</v>
+        <v>0.1904165981443167</v>
       </c>
       <c r="D31">
-        <v>0.3060675391354</v>
+        <v>0.2155284259828033</v>
       </c>
       <c r="E31">
-        <v>0.000235492138067834</v>
+        <v>0.1566724930698498</v>
       </c>
       <c r="F31">
-        <v>0.0003683525715644118</v>
+        <v>0.6379165069857177</v>
       </c>
       <c r="G31">
-        <v>0.02930530572571779</v>
+        <v>0.01196628116045745</v>
       </c>
       <c r="H31">
-        <v>0.09504324209617042</v>
+        <v>0.164983451749411</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1317,25 +1305,25 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>-5.363419657121343</v>
+        <v>-3.883325551143023</v>
       </c>
       <c r="D32">
-        <v>7.704128957135876</v>
+        <v>6.598172260509725</v>
       </c>
       <c r="E32">
-        <v>1.737801790999322</v>
+        <v>1.956969119442205</v>
       </c>
       <c r="F32">
-        <v>0.5171851411798651</v>
+        <v>2.510700092293856</v>
       </c>
       <c r="G32">
-        <v>3.254233095182558</v>
+        <v>5.095843964271418</v>
       </c>
       <c r="H32">
-        <v>3.771418236362422</v>
+        <v>7.606544056565274</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1343,25 +1331,25 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>0.07447935953748452</v>
+        <v>0.1331584922653812</v>
       </c>
       <c r="D33">
-        <v>0.1881023076162815</v>
+        <v>0.1103929795841897</v>
       </c>
       <c r="E33">
-        <v>0.1676618624698705</v>
+        <v>0.04596127922148904</v>
       </c>
       <c r="F33">
-        <v>0.03328272101937339</v>
+        <v>0.2687381240400274</v>
       </c>
       <c r="G33">
-        <v>0.4070075274123006</v>
+        <v>0.009606904518996614</v>
       </c>
       <c r="H33">
-        <v>0.4149640381608954</v>
+        <v>0.2682641841872546</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1369,25 +1357,25 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>-5.533464424484357</v>
+        <v>-3.994081025410157</v>
       </c>
       <c r="D34">
-        <v>7.29081360655877</v>
+        <v>6.475423460039309</v>
       </c>
       <c r="E34">
-        <v>1.364019990190264</v>
+        <v>1.905344249214258</v>
       </c>
       <c r="F34">
-        <v>0.4452748299767978</v>
+        <v>2.211221299612262</v>
       </c>
       <c r="G34">
-        <v>2.18009057929171</v>
+        <v>5.08751433785733</v>
       </c>
       <c r="H34">
-        <v>2.745321281070073</v>
+        <v>7.304885346419653</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1395,25 +1383,25 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>-5.218015584342556</v>
+        <v>-3.735583845102278</v>
       </c>
       <c r="D35">
-        <v>8.11820906518402</v>
+        <v>6.689315082415904</v>
       </c>
       <c r="E35">
-        <v>1.999903510190264</v>
+        <v>1.993439592280658</v>
       </c>
       <c r="F35">
-        <v>0.5711691264208488</v>
+        <v>2.730827831867279</v>
       </c>
       <c r="G35">
-        <v>3.979990095625165</v>
+        <v>5.106353508149532</v>
       </c>
       <c r="H35">
-        <v>4.533149387381721</v>
+        <v>7.818342169724609</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1421,25 +1409,25 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>3.596716802068449E-06</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>3.512054764683884E-05</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>2.124892902334718E-11</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>7.36045465503879E-10</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>9.322116152969841E-08</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1.532274381561087E-07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1447,25 +1435,25 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>-5.337384565620921</v>
+        <v>-4.448101915363013</v>
       </c>
       <c r="D37">
-        <v>7.717893072114624</v>
+        <v>6.922410276823737</v>
       </c>
       <c r="E37">
-        <v>1.634994948024328</v>
+        <v>1.825686731866207</v>
       </c>
       <c r="F37">
-        <v>2.696948763123419</v>
+        <v>2.313819636882579</v>
       </c>
       <c r="G37">
-        <v>0.8412826092054693</v>
+        <v>2.654207619793909</v>
       </c>
       <c r="H37">
-        <v>3.538231372328888</v>
+        <v>4.968027256676488</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1473,25 +1461,25 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.2002193215702002</v>
+        <v>0.1050056307834499</v>
       </c>
       <c r="D38">
-        <v>0.3099288261704258</v>
+        <v>0.1740087158953626</v>
       </c>
       <c r="E38">
-        <v>0.2167053896594222</v>
+        <v>0.1262157671205731</v>
       </c>
       <c r="F38">
-        <v>0.1938788977414472</v>
+        <v>0.1640886770573261</v>
       </c>
       <c r="G38">
-        <v>0.09886973086261829</v>
+        <v>0.03584078212093809</v>
       </c>
       <c r="H38">
-        <v>0.2309739986778185</v>
+        <v>0.1631030893365266</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1499,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>-5.782353400346667</v>
+        <v>-4.65554827347238</v>
       </c>
       <c r="D39">
-        <v>6.968934137474133</v>
+        <v>6.638011596452382</v>
       </c>
       <c r="E39">
-        <v>1.166093446934691</v>
+        <v>1.514678113462724</v>
       </c>
       <c r="F39">
-        <v>2.362753771461561</v>
+        <v>1.996889892124052</v>
       </c>
       <c r="G39">
-        <v>0.7201584470653875</v>
+        <v>2.523754348481118</v>
       </c>
       <c r="H39">
-        <v>3.085898922718669</v>
+        <v>4.624687686696605</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1525,25 +1513,25 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>-4.905786024137808</v>
+        <v>-4.293205134723206</v>
       </c>
       <c r="D40">
-        <v>8.452803936880326</v>
+        <v>7.400083191229202</v>
       </c>
       <c r="E40">
-        <v>1.999002246934691</v>
+        <v>1.997870245612361</v>
       </c>
       <c r="F40">
-        <v>3.033785702382749</v>
+        <v>2.559498736511691</v>
       </c>
       <c r="G40">
-        <v>1.083057615605695</v>
+        <v>2.693474652208473</v>
       </c>
       <c r="H40">
-        <v>4.077388310061559</v>
+        <v>5.252973388720164</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1551,25 +1539,25 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>7.361012684165871E-05</v>
+        <v>0.4757417386928489</v>
       </c>
       <c r="D41">
-        <v>0.02894453693210716</v>
+        <v>0.3889027140731899</v>
       </c>
       <c r="E41">
-        <v>2.091650466924577E-09</v>
+        <v>0.3633967757062675</v>
       </c>
       <c r="F41">
-        <v>3.269327089690064E-12</v>
+        <v>0.147425113601394</v>
       </c>
       <c r="G41">
-        <v>1.931723984296629E-15</v>
+        <v>0.0002798765199074686</v>
       </c>
       <c r="H41">
-        <v>8.465249690272179E-06</v>
+        <v>0.3974010021099924</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1577,25 +1565,25 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>-5.078561586156161</v>
+        <v>-5.908137797737991</v>
       </c>
       <c r="D42">
-        <v>6.954971647554747</v>
+        <v>7.973854740375697</v>
       </c>
       <c r="E42">
-        <v>1.554745614226434</v>
+        <v>1.487579057220502</v>
       </c>
       <c r="F42">
-        <v>4.350143414152684</v>
+        <v>0.8926727927056844</v>
       </c>
       <c r="G42">
-        <v>0.8740601414291006</v>
+        <v>2.270434487802045</v>
       </c>
       <c r="H42">
-        <v>5.224203555581785</v>
+        <v>3.163107280507729</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1603,25 +1591,25 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>0.1788120556317218</v>
+        <v>0.1201366070218342</v>
       </c>
       <c r="D43">
-        <v>0.2745071423449726</v>
+        <v>0.3105920114253106</v>
       </c>
       <c r="E43">
-        <v>0.2409544067714819</v>
+        <v>0.2850105972694865</v>
       </c>
       <c r="F43">
-        <v>0.2633485199881929</v>
+        <v>0.0574276201621185</v>
       </c>
       <c r="G43">
-        <v>0.08105241675652008</v>
+        <v>0.4781069326671277</v>
       </c>
       <c r="H43">
-        <v>0.2473533238797793</v>
+        <v>0.4723238230275222</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1629,25 +1617,25 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>-5.420561572857475</v>
+        <v>-6.055999045575032</v>
       </c>
       <c r="D44">
-        <v>6.489209318608097</v>
+        <v>7.434287505225811</v>
       </c>
       <c r="E44">
-        <v>1.053838013360321</v>
+        <v>1.167935885391677</v>
       </c>
       <c r="F44">
-        <v>3.74022418919852</v>
+        <v>0.7847061668491213</v>
       </c>
       <c r="G44">
-        <v>0.5409502972316613</v>
+        <v>1.510724223258348</v>
       </c>
       <c r="H44">
-        <v>4.684194647864337</v>
+        <v>2.385761048780087</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1655,25 +1643,25 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>-4.660096699761295</v>
+        <v>-5.648134390796796</v>
       </c>
       <c r="D45">
-        <v>7.721503349756015</v>
+        <v>8.409368695070457</v>
       </c>
       <c r="E45">
-        <v>1.999660310190264</v>
+        <v>1.989354183454089</v>
       </c>
       <c r="F45">
-        <v>4.80158200543644</v>
+        <v>0.9919589355808901</v>
       </c>
       <c r="G45">
-        <v>0.9618865606727014</v>
+        <v>2.941868064923152</v>
       </c>
       <c r="H45">
-        <v>5.732188299835824</v>
+        <v>3.796594031381794</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1681,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>2.796467655300381E-07</v>
+        <v>0.143564213398894</v>
       </c>
       <c r="D46">
-        <v>1.695597958614622E-09</v>
+        <v>0.3079823746473155</v>
       </c>
       <c r="E46">
-        <v>6.706093662027513E-08</v>
+        <v>0.03638474352468521</v>
       </c>
       <c r="F46">
-        <v>2.928164538808957E-09</v>
+        <v>0.5934899127556502</v>
       </c>
       <c r="G46">
-        <v>1.685074048419899E-21</v>
+        <v>0.1548910772780275</v>
       </c>
       <c r="H46">
-        <v>1.690236703136115E-07</v>
+        <v>0.2069744329710599</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1707,25 +1695,25 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>-6.63352651378316</v>
+        <v>-6.291413694658766</v>
       </c>
       <c r="D47">
-        <v>6.377515771480093</v>
+        <v>8.142999360780189</v>
       </c>
       <c r="E47">
-        <v>1.400439861824225</v>
+        <v>1.211690263028734</v>
       </c>
       <c r="F47">
-        <v>34.94766000555677</v>
+        <v>2.376663030519321</v>
       </c>
       <c r="G47">
-        <v>43.82573238156441</v>
+        <v>0.9394877310467409</v>
       </c>
       <c r="H47">
-        <v>78.77339238712119</v>
+        <v>3.316150761566063</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1733,25 +1721,25 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C48">
-        <v>0.2715832684815598</v>
+        <v>0.1350318293472363</v>
       </c>
       <c r="D48">
-        <v>0.2812941941090555</v>
+        <v>0.2127739175410318</v>
       </c>
       <c r="E48">
-        <v>0.1873477487420773</v>
+        <v>0.2628028470655545</v>
       </c>
       <c r="F48">
-        <v>1.952194602172033</v>
+        <v>0.2014933186627662</v>
       </c>
       <c r="G48">
-        <v>9.488107710748327E-07</v>
+        <v>0.1863750453773304</v>
       </c>
       <c r="H48">
-        <v>1.95219497312533</v>
+        <v>0.3251151528064058</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1759,25 +1747,25 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>-6.998159085689096</v>
+        <v>-6.460005880809252</v>
       </c>
       <c r="D49">
-        <v>6.000747590511628</v>
+        <v>7.787762862173285</v>
       </c>
       <c r="E49">
-        <v>1.002202246934691</v>
+        <v>0.8455367076410357</v>
       </c>
       <c r="F49">
-        <v>29.42943104477166</v>
+        <v>2.031514648877584</v>
       </c>
       <c r="G49">
-        <v>43.8257310314647</v>
+        <v>0.7325165696442274</v>
       </c>
       <c r="H49">
-        <v>73.25516241704662</v>
+        <v>2.876993757863135</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1785,25 +1773,25 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C50">
-        <v>-5.774658833523151</v>
+        <v>-6.072056889293731</v>
       </c>
       <c r="D50">
-        <v>7.20904113518272</v>
+        <v>8.44796030278723</v>
       </c>
       <c r="E50">
-        <v>1.710349446934691</v>
+        <v>1.629402075908602</v>
       </c>
       <c r="F50">
-        <v>37.78807142939722</v>
+        <v>2.586889794972255</v>
       </c>
       <c r="G50">
-        <v>43.82573484410683</v>
+        <v>1.293560471919912</v>
       </c>
       <c r="H50">
-        <v>81.61380283625151</v>
+        <v>3.819819514600741</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1811,25 +1799,25 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>4.002943766031104E-14</v>
+        <v>0.5733728737570656</v>
       </c>
       <c r="D51">
-        <v>7.754596911541445E-14</v>
+        <v>0.9066607576823932</v>
       </c>
       <c r="E51">
-        <v>2.060851193342251E-11</v>
+        <v>0.5557822221107033</v>
       </c>
       <c r="F51">
-        <v>3.685259975349723E-12</v>
+        <v>0.1563841494618764</v>
       </c>
       <c r="G51">
-        <v>1.521809192866219E-13</v>
+        <v>0.3579380383836785</v>
       </c>
       <c r="H51">
-        <v>3.685254715666032E-12</v>
+        <v>0.6121035482704826</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1837,25 +1825,25 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>-5.149466265168581</v>
+        <v>-4.561457660227356</v>
       </c>
       <c r="D52">
-        <v>7.173836025884676</v>
+        <v>7.051245489397942</v>
       </c>
       <c r="E52">
-        <v>1.881188059480866</v>
+        <v>1.887704271145517</v>
       </c>
       <c r="F52">
-        <v>21.19606112295724</v>
+        <v>3.555873143900729</v>
       </c>
       <c r="G52">
-        <v>1.775129526527066</v>
+        <v>0.9470722600839155</v>
       </c>
       <c r="H52">
-        <v>22.9711906494843</v>
+        <v>4.502945403984644</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1863,25 +1851,25 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C53">
-        <v>0.2566163093352933</v>
+        <v>0.2353264076199507</v>
       </c>
       <c r="D53">
-        <v>0.259265233494022</v>
+        <v>0.2160265467357949</v>
       </c>
       <c r="E53">
-        <v>0.08629792550545937</v>
+        <v>0.06570266750840201</v>
       </c>
       <c r="F53">
-        <v>1.049143228218527</v>
+        <v>0.2881380612688094</v>
       </c>
       <c r="G53">
-        <v>0.1411902444993971</v>
+        <v>0.1354193581200869</v>
       </c>
       <c r="H53">
-        <v>1.057149593913802</v>
+        <v>0.2232775963292058</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1889,25 +1877,25 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>-5.777902601571162</v>
+        <v>-4.83609639851493</v>
       </c>
       <c r="D54">
-        <v>6.69799760378939</v>
+        <v>6.790039402100927</v>
       </c>
       <c r="E54">
-        <v>1.628506246934691</v>
+        <v>1.767051953467622</v>
       </c>
       <c r="F54">
-        <v>17.63270755092724</v>
+        <v>3.037944079661166</v>
       </c>
       <c r="G54">
-        <v>1.214439504065071</v>
+        <v>0.7772241760721144</v>
       </c>
       <c r="H54">
-        <v>19.37094153141691</v>
+        <v>4.1087081174537</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1915,25 +1903,25 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C55">
-        <v>-4.566473846927911</v>
+        <v>-4.247161784888958</v>
       </c>
       <c r="D55">
-        <v>7.907584392640903</v>
+        <v>7.30734841869422</v>
       </c>
       <c r="E55">
-        <v>1.999097110190264</v>
+        <v>1.957397845953245</v>
       </c>
       <c r="F55">
-        <v>22.63349348339724</v>
+        <v>3.854073370791668</v>
       </c>
       <c r="G55">
-        <v>1.947996904305382</v>
+        <v>1.09734110927536</v>
       </c>
       <c r="H55">
-        <v>24.54294205492133</v>
+        <v>4.838769521615261</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1941,25 +1929,285 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>0.3263875152205287</v>
+      </c>
+      <c r="D56">
+        <v>0.1904851375093919</v>
+      </c>
+      <c r="E56">
+        <v>0.44559057237771</v>
+      </c>
+      <c r="F56">
+        <v>0.4274202707350325</v>
+      </c>
+      <c r="G56">
+        <v>0.1459200727569978</v>
+      </c>
+      <c r="H56">
+        <v>0.8004325771596577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>-3.544323627872152</v>
+      </c>
+      <c r="D57">
+        <v>5.823563796578312</v>
+      </c>
+      <c r="E57">
+        <v>1.4944676425861</v>
+      </c>
+      <c r="F57">
+        <v>5.330764864017965</v>
+      </c>
+      <c r="G57">
+        <v>37.98417517876454</v>
+      </c>
+      <c r="H57">
+        <v>43.31494004278251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>0.2853600861172664</v>
+      </c>
+      <c r="D58">
+        <v>0.5266453883531726</v>
+      </c>
+      <c r="E58">
+        <v>0.3404667192036623</v>
+      </c>
+      <c r="F58">
+        <v>0.2809061319803324</v>
+      </c>
+      <c r="G58">
+        <v>0.008791790588718512</v>
+      </c>
+      <c r="H58">
+        <v>0.2804047637339003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
         <v>23</v>
       </c>
-      <c r="C56">
-        <v>0.01243682007639997</v>
-      </c>
-      <c r="D56">
-        <v>8.149970399248276E-07</v>
-      </c>
-      <c r="E56">
-        <v>7.257793216689166E-13</v>
-      </c>
-      <c r="F56">
-        <v>2.324949278692557E-13</v>
-      </c>
-      <c r="G56">
-        <v>1.810091163940854E-19</v>
-      </c>
-      <c r="H56">
-        <v>5.157532448029655E-12</v>
+      <c r="C59">
+        <v>-4.306488009758167</v>
+      </c>
+      <c r="D59">
+        <v>5.019726523328758</v>
+      </c>
+      <c r="E59">
+        <v>0.7594438353318083</v>
+      </c>
+      <c r="F59">
+        <v>4.527158756852845</v>
+      </c>
+      <c r="G59">
+        <v>37.93306609837589</v>
+      </c>
+      <c r="H59">
+        <v>42.50769360692846</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>-3.079236066456841</v>
+      </c>
+      <c r="D60">
+        <v>7.165257951910485</v>
+      </c>
+      <c r="E60">
+        <v>1.998024391203919</v>
+      </c>
+      <c r="F60">
+        <v>5.810621504925645</v>
+      </c>
+      <c r="G60">
+        <v>37.99284109162234</v>
+      </c>
+      <c r="H60">
+        <v>43.79872679200024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>6.0985163263447E-05</v>
+      </c>
+      <c r="D61">
+        <v>0.0001795398060270219</v>
+      </c>
+      <c r="E61">
+        <v>5.677206756527854E-05</v>
+      </c>
+      <c r="F61">
+        <v>0.01472343896861905</v>
+      </c>
+      <c r="G61">
+        <v>1.280384408786226E-17</v>
+      </c>
+      <c r="H61">
+        <v>0.01229376826119387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>-5.653938503006979</v>
+      </c>
+      <c r="D62">
+        <v>7.603133472261776</v>
+      </c>
+      <c r="E62">
+        <v>1.860280862702958</v>
+      </c>
+      <c r="F62">
+        <v>16.10428363278266</v>
+      </c>
+      <c r="G62">
+        <v>0.8513218944690663</v>
+      </c>
+      <c r="H62">
+        <v>16.95560552725174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>0.3667415623023103</v>
+      </c>
+      <c r="D63">
+        <v>0.421770295293684</v>
+      </c>
+      <c r="E63">
+        <v>0.09577200746314339</v>
+      </c>
+      <c r="F63">
+        <v>1.027922015716434</v>
+      </c>
+      <c r="G63">
+        <v>0.1316457725743698</v>
+      </c>
+      <c r="H63">
+        <v>1.064241619985107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>-6.300375839132393</v>
+      </c>
+      <c r="D64">
+        <v>6.905162253424443</v>
+      </c>
+      <c r="E64">
+        <v>1.614577614631393</v>
+      </c>
+      <c r="F64">
+        <v>13.84992709631231</v>
+      </c>
+      <c r="G64">
+        <v>0.4615162177697826</v>
+      </c>
+      <c r="H64">
+        <v>14.52449337542753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>-4.984113074309956</v>
+      </c>
+      <c r="D65">
+        <v>8.450033084734164</v>
+      </c>
+      <c r="E65">
+        <v>1.998100440873204</v>
+      </c>
+      <c r="F65">
+        <v>17.71616533638353</v>
+      </c>
+      <c r="G65">
+        <v>0.9890404825683003</v>
+      </c>
+      <c r="H65">
+        <v>18.66416462649333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>0.6893000306242256</v>
+      </c>
+      <c r="D66">
+        <v>0.6478029572131592</v>
+      </c>
+      <c r="E66">
+        <v>0.3974165535430625</v>
+      </c>
+      <c r="F66">
+        <v>0.4838065137729135</v>
+      </c>
+      <c r="G66">
+        <v>0.003479815309771561</v>
+      </c>
+      <c r="H66">
+        <v>0.5534854057489834</v>
       </c>
     </row>
   </sheetData>
@@ -1977,209 +2225,209 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>0.0145763833754331</v>
+        <v>0.08111342791312004</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>4027</v>
+        <v>289</v>
       </c>
       <c r="F2">
-        <v>90747.26795937755</v>
+        <v>1091.303976687829</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.014249795213281E-157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>0.9854236166245669</v>
+        <v>0.91888657208688</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>4027</v>
+        <v>289</v>
       </c>
       <c r="F3">
-        <v>90747.26795937754</v>
+        <v>1091.303976687829</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3.014249795213207E-157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>67.60412313834931</v>
+        <v>11.32841498291864</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>4026.999999999779</v>
+        <v>288.9999999999991</v>
       </c>
       <c r="F4">
-        <v>90747.26795937757</v>
+        <v>1091.303976687829</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.014249795215454E-157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>67.60412313834931</v>
+        <v>11.32841498291864</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>4027</v>
+        <v>289</v>
       </c>
       <c r="F5">
-        <v>90747.26795937755</v>
+        <v>1091.303976687829</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3.014249795213281E-157</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>0.002338257172926061</v>
+        <v>0.794078164019681</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>11761.55891393548</v>
+        <v>289</v>
       </c>
       <c r="F6">
-        <v>3031.80562969327</v>
+        <v>24.9813403326532</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.119581429289358E-14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>2.267982061713934</v>
+        <v>0.2059218359803189</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>12087</v>
+        <v>289</v>
       </c>
       <c r="F7">
-        <v>1386.987827107731</v>
+        <v>24.9813403326532</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.119581429289401E-14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>55.41383637013613</v>
+        <v>0.2593218719652581</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>8975.641937578848</v>
+        <v>288.9999999999991</v>
       </c>
       <c r="F8">
-        <v>8262.607465658712</v>
+        <v>24.9813403326532</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.119581429289404E-14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>51.61867647648803</v>
+        <v>0.2593218719652581</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>4029</v>
+        <v>289</v>
       </c>
       <c r="F9">
-        <v>23107.96083597447</v>
+        <v>24.98134033265319</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.119581429289401E-14</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2445,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2205,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.249565857749685E-157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2213,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.228625882341294E-85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2221,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7.16210635320125E-16</v>
       </c>
     </row>
   </sheetData>
@@ -2231,13 +2479,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>103</v>
       </c>
@@ -2245,133 +2493,148 @@
         <v>107</v>
       </c>
       <c r="D1" s="1">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1">
         <v>111</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>112</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1">
         <v>207</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="1">
         <v>302</v>
       </c>
-      <c r="H1" s="1">
+      <c r="J1" s="1">
         <v>307</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1">
         <v>308</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="1">
         <v>311</v>
       </c>
-      <c r="K1" s="1">
+      <c r="M1" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.90881854620296E-260</v>
+        <v>0.7650820435581931</v>
       </c>
       <c r="C2">
-        <v>3.302949656901158E-41</v>
-      </c>
-      <c r="D2">
-        <v>2.239688800046284E-19</v>
+        <v>7.216834536230983E-35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0614173471411343</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4.388199347085656E-22</v>
       </c>
       <c r="G2">
-        <v>0.02434271692512613</v>
+        <v>0.01589787577637215</v>
       </c>
       <c r="H2">
-        <v>0.6625349274773339</v>
+        <v>0.002203714744374055</v>
       </c>
       <c r="I2">
-        <v>9.431534660944495E-114</v>
+        <v>1.093426404164718E-68</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.425673863816813E-34</v>
       </c>
       <c r="K2">
-        <v>3.227258735788658E-45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.01589787577637215</v>
+      </c>
+      <c r="L2">
+        <v>3.014583368335759E-55</v>
+      </c>
+      <c r="M2">
+        <v>1.021374948949699E-20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.3329802291386849</v>
       </c>
       <c r="C3">
-        <v>4.239763068563502E-28</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>5.132736223967657E-15</v>
       </c>
       <c r="E3">
-        <v>0.09374256805495322</v>
+        <v>0.02042063891207741</v>
       </c>
       <c r="F3">
-        <v>4.03984046783107E-06</v>
+        <v>1.953697042225384E-07</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.249392921225676</v>
       </c>
       <c r="H3">
-        <v>4.81044901387503E-248</v>
+        <v>4.440921810931437E-11</v>
       </c>
       <c r="I3">
-        <v>8.315453363985616E-11</v>
+        <v>1.591071451869213E-17</v>
       </c>
       <c r="J3">
-        <v>1.359553585033913E-276</v>
+        <v>3.528761762957652E-15</v>
       </c>
       <c r="K3">
-        <v>1.246381602814134E-22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>9.019026576670244E-05</v>
+      </c>
+      <c r="L3">
+        <v>6.878433468142056E-63</v>
+      </c>
+      <c r="M3">
+        <v>2.675924807156731E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.711959858711226E-283</v>
+        <v>0.0005732411548398088</v>
       </c>
       <c r="C4">
-        <v>2.79952324531861E-101</v>
-      </c>
-      <c r="D4">
-        <v>2.952635112676458E-318</v>
+        <v>0.001677857713901045</v>
       </c>
       <c r="E4">
-        <v>3.86230572884272E-60</v>
+        <v>4.352205192605422E-06</v>
       </c>
       <c r="F4">
-        <v>4.874947438420517E-51</v>
+        <v>0.5192185805376288</v>
       </c>
       <c r="G4">
-        <v>8.980019454099665E-72</v>
+        <v>0.0003360494847971281</v>
       </c>
       <c r="H4">
-        <v>1.825268437790837E-07</v>
+        <v>1.660876006117142E-09</v>
       </c>
       <c r="I4">
-        <v>0.004007149554013137</v>
+        <v>0.1290250317508178</v>
       </c>
       <c r="J4">
-        <v>7.06939896934781E-84</v>
+        <v>0.001170617882525059</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.726169814067925E-07</v>
+      </c>
+      <c r="L4">
+        <v>1.660876006117142E-09</v>
+      </c>
+      <c r="M4">
+        <v>6.794730555410973E-15</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2644,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2389,13 +2652,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2414,10 +2677,10 @@
         <v>103</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2425,10 +2688,10 @@
         <v>103</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9989</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2436,7 +2699,7 @@
         <v>103</v>
       </c>
       <c r="B5">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2447,10 +2710,10 @@
         <v>103</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.4362</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2458,10 +2721,10 @@
         <v>103</v>
       </c>
       <c r="B7">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.8847</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2469,7 +2732,7 @@
         <v>103</v>
       </c>
       <c r="B8">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2480,7 +2743,7 @@
         <v>103</v>
       </c>
       <c r="B9">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2491,29 +2754,29 @@
         <v>103</v>
       </c>
       <c r="B10">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.5571</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="C11">
-        <v>0.008500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2524,10 +2787,10 @@
         <v>107</v>
       </c>
       <c r="B13">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.06850000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2535,7 +2798,7 @@
         <v>107</v>
       </c>
       <c r="B14">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2546,10 +2809,10 @@
         <v>107</v>
       </c>
       <c r="B15">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.9998</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2557,7 +2820,7 @@
         <v>107</v>
       </c>
       <c r="B16">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2568,7 +2831,7 @@
         <v>107</v>
       </c>
       <c r="B17">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2579,7 +2842,7 @@
         <v>107</v>
       </c>
       <c r="B18">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2587,10 +2850,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2598,10 +2861,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B20">
-        <v>207</v>
+        <v>308</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2609,10 +2872,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B21">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2620,10 +2883,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2631,51 +2894,51 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
+        <v>110</v>
+      </c>
+      <c r="B23">
         <v>111</v>
       </c>
-      <c r="B23">
-        <v>308</v>
-      </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.8827</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <v>207</v>
       </c>
       <c r="C26">
-        <v>0.009599999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27">
         <v>302</v>
@@ -2686,7 +2949,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28">
         <v>307</v>
@@ -2697,29 +2960,29 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>308</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.9998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>311</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.0528</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31">
         <v>312</v>
@@ -2730,10 +2993,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B32">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2741,32 +3004,32 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B33">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.0693</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
+        <v>111</v>
+      </c>
+      <c r="B34">
         <v>207</v>
       </c>
-      <c r="B34">
-        <v>308</v>
-      </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.9992</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B35">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2774,10 +3037,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B36">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2785,21 +3048,21 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B37">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C37">
-        <v>0.3764</v>
+        <v>0.8903</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B38">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2807,10 +3070,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B39">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2818,10 +3081,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="B40">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2829,10 +3092,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="B41">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2840,10 +3103,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="B42">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2851,10 +3114,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
+        <v>112</v>
+      </c>
+      <c r="B43">
         <v>307</v>
-      </c>
-      <c r="B43">
-        <v>312</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2862,10 +3125,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
+        <v>112</v>
+      </c>
+      <c r="B44">
         <v>308</v>
-      </c>
-      <c r="B44">
-        <v>311</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2873,10 +3136,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="B45">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2884,12 +3147,243 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>312</v>
       </c>
       <c r="C46">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>204</v>
+      </c>
+      <c r="B47">
+        <v>207</v>
+      </c>
+      <c r="C47">
+        <v>0.0128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>204</v>
+      </c>
+      <c r="B48">
+        <v>302</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>204</v>
+      </c>
+      <c r="B49">
+        <v>307</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>204</v>
+      </c>
+      <c r="B50">
+        <v>308</v>
+      </c>
+      <c r="C50">
+        <v>0.0053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>204</v>
+      </c>
+      <c r="B51">
+        <v>311</v>
+      </c>
+      <c r="C51">
+        <v>0.4481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <v>312</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>207</v>
+      </c>
+      <c r="B53">
+        <v>302</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>207</v>
+      </c>
+      <c r="B54">
+        <v>307</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>207</v>
+      </c>
+      <c r="B55">
+        <v>308</v>
+      </c>
+      <c r="C55">
+        <v>0.9959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>207</v>
+      </c>
+      <c r="B56">
+        <v>311</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>207</v>
+      </c>
+      <c r="B57">
+        <v>312</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>302</v>
+      </c>
+      <c r="B58">
+        <v>307</v>
+      </c>
+      <c r="C58">
+        <v>0.0072</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>302</v>
+      </c>
+      <c r="B59">
+        <v>308</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>302</v>
+      </c>
+      <c r="B60">
+        <v>311</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>302</v>
+      </c>
+      <c r="B61">
+        <v>312</v>
+      </c>
+      <c r="C61">
+        <v>0.06560000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>307</v>
+      </c>
+      <c r="B62">
+        <v>308</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>307</v>
+      </c>
+      <c r="B63">
+        <v>311</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>307</v>
+      </c>
+      <c r="B64">
+        <v>312</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>308</v>
+      </c>
+      <c r="B65">
+        <v>311</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>308</v>
+      </c>
+      <c r="B66">
+        <v>312</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>311</v>
+      </c>
+      <c r="B67">
+        <v>312</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
@@ -2900,7 +3394,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2908,13 +3402,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2925,7 +3419,7 @@
         <v>107</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2933,10 +3427,10 @@
         <v>103</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2944,10 +3438,10 @@
         <v>103</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2955,10 +3449,10 @@
         <v>103</v>
       </c>
       <c r="B5">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2966,10 +3460,10 @@
         <v>103</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2977,10 +3471,10 @@
         <v>103</v>
       </c>
       <c r="B7">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.6095</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2988,7 +3482,7 @@
         <v>103</v>
       </c>
       <c r="B8">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2999,10 +3493,10 @@
         <v>103</v>
       </c>
       <c r="B9">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C9">
-        <v>0.9933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3010,29 +3504,29 @@
         <v>103</v>
       </c>
       <c r="B10">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.5135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3043,10 +3537,10 @@
         <v>107</v>
       </c>
       <c r="B13">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3054,10 +3548,10 @@
         <v>107</v>
       </c>
       <c r="B14">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.0421</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3065,10 +3559,10 @@
         <v>107</v>
       </c>
       <c r="B15">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3076,10 +3570,10 @@
         <v>107</v>
       </c>
       <c r="B16">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.6862</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3087,10 +3581,10 @@
         <v>107</v>
       </c>
       <c r="B17">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.9162</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3098,18 +3592,18 @@
         <v>107</v>
       </c>
       <c r="B18">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C18">
-        <v>0.9972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3117,21 +3611,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B20">
-        <v>207</v>
+        <v>308</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B21">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3139,153 +3633,153 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
+        <v>110</v>
+      </c>
+      <c r="B23">
         <v>111</v>
       </c>
-      <c r="B23">
-        <v>308</v>
-      </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.9961</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <v>207</v>
       </c>
       <c r="C26">
-        <v>0.9058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27">
         <v>302</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.2704</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28">
         <v>307</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.1288</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>308</v>
       </c>
       <c r="C29">
-        <v>0.0212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>311</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.4766</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31">
         <v>312</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.8174</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B32">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B33">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
+        <v>111</v>
+      </c>
+      <c r="B34">
         <v>207</v>
       </c>
-      <c r="B34">
-        <v>308</v>
-      </c>
       <c r="C34">
-        <v>0.9959</v>
+        <v>0.6379</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B35">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3293,10 +3787,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B36">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3304,21 +3798,21 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B37">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C37">
-        <v>0.994</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B38">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3326,10 +3820,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B39">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3337,65 +3831,65 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="B40">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.3747</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="B41">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.4926</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="B42">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
+        <v>112</v>
+      </c>
+      <c r="B43">
         <v>307</v>
       </c>
-      <c r="B43">
-        <v>312</v>
-      </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
+        <v>112</v>
+      </c>
+      <c r="B44">
         <v>308</v>
       </c>
-      <c r="B44">
-        <v>311</v>
-      </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="B45">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3403,12 +3897,243 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>312</v>
       </c>
       <c r="C46">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>204</v>
+      </c>
+      <c r="B47">
+        <v>207</v>
+      </c>
+      <c r="C47">
+        <v>0.9858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>204</v>
+      </c>
+      <c r="B48">
+        <v>302</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>204</v>
+      </c>
+      <c r="B49">
+        <v>307</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>204</v>
+      </c>
+      <c r="B50">
+        <v>308</v>
+      </c>
+      <c r="C50">
+        <v>0.9308999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>204</v>
+      </c>
+      <c r="B51">
+        <v>311</v>
+      </c>
+      <c r="C51">
+        <v>0.08790000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <v>312</v>
+      </c>
+      <c r="C52">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>207</v>
+      </c>
+      <c r="B53">
+        <v>302</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>207</v>
+      </c>
+      <c r="B54">
+        <v>307</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>207</v>
+      </c>
+      <c r="B55">
+        <v>308</v>
+      </c>
+      <c r="C55">
+        <v>0.9999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>207</v>
+      </c>
+      <c r="B56">
+        <v>311</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>207</v>
+      </c>
+      <c r="B57">
+        <v>312</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>302</v>
+      </c>
+      <c r="B58">
+        <v>307</v>
+      </c>
+      <c r="C58">
+        <v>0.9978</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>302</v>
+      </c>
+      <c r="B59">
+        <v>308</v>
+      </c>
+      <c r="C59">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>302</v>
+      </c>
+      <c r="B60">
+        <v>311</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>302</v>
+      </c>
+      <c r="B61">
+        <v>312</v>
+      </c>
+      <c r="C61">
+        <v>0.2308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>307</v>
+      </c>
+      <c r="B62">
+        <v>308</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>307</v>
+      </c>
+      <c r="B63">
+        <v>311</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>307</v>
+      </c>
+      <c r="B64">
+        <v>312</v>
+      </c>
+      <c r="C64">
+        <v>0.0462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>308</v>
+      </c>
+      <c r="B65">
+        <v>311</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>308</v>
+      </c>
+      <c r="B66">
+        <v>312</v>
+      </c>
+      <c r="C66">
+        <v>0.1199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>311</v>
+      </c>
+      <c r="B67">
+        <v>312</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
@@ -3419,7 +4144,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3427,13 +4152,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3444,7 +4169,7 @@
         <v>107</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,10 +4177,10 @@
         <v>103</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>0.0009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3463,10 +4188,10 @@
         <v>103</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3474,10 +4199,10 @@
         <v>103</v>
       </c>
       <c r="B5">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8395</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3485,10 +4210,10 @@
         <v>103</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.9993</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3496,10 +4221,10 @@
         <v>103</v>
       </c>
       <c r="B7">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3507,10 +4232,10 @@
         <v>103</v>
       </c>
       <c r="B8">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.3081</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3518,10 +4243,10 @@
         <v>103</v>
       </c>
       <c r="B9">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3529,32 +4254,32 @@
         <v>103</v>
       </c>
       <c r="B10">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="C12">
-        <v>0.0081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3562,10 +4287,10 @@
         <v>107</v>
       </c>
       <c r="B13">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3573,10 +4298,10 @@
         <v>107</v>
       </c>
       <c r="B14">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="C14">
-        <v>0.7874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3584,10 +4309,10 @@
         <v>107</v>
       </c>
       <c r="B15">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.8584000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3595,10 +4320,10 @@
         <v>107</v>
       </c>
       <c r="B16">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.9909</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3606,10 +4331,10 @@
         <v>107</v>
       </c>
       <c r="B17">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.9997</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3617,317 +4342,548 @@
         <v>107</v>
       </c>
       <c r="B18">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.2094</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B20">
-        <v>207</v>
+        <v>308</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.9956</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B21">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.9896</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
+        <v>110</v>
+      </c>
+      <c r="B23">
         <v>111</v>
       </c>
-      <c r="B23">
-        <v>308</v>
-      </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <v>207</v>
       </c>
       <c r="C26">
-        <v>0.2117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27">
         <v>302</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.9411</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28">
         <v>307</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.3997</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>308</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>311</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.9373</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31">
         <v>312</v>
       </c>
       <c r="C31">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B32">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.5073</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B33">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.9995000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
+        <v>111</v>
+      </c>
+      <c r="B34">
         <v>207</v>
       </c>
-      <c r="B34">
-        <v>308</v>
-      </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B35">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B36">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C36">
-        <v>0.9997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B37">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B38">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B39">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="B40">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.5736</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="B41">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="B42">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
+        <v>112</v>
+      </c>
+      <c r="B43">
         <v>307</v>
       </c>
-      <c r="B43">
-        <v>312</v>
-      </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
+        <v>112</v>
+      </c>
+      <c r="B44">
         <v>308</v>
       </c>
-      <c r="B44">
-        <v>311</v>
-      </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.4159</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="B45">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>312</v>
       </c>
       <c r="C46">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>204</v>
+      </c>
+      <c r="B47">
+        <v>207</v>
+      </c>
+      <c r="C47">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>204</v>
+      </c>
+      <c r="B48">
+        <v>302</v>
+      </c>
+      <c r="C48">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>204</v>
+      </c>
+      <c r="B49">
+        <v>307</v>
+      </c>
+      <c r="C49">
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>204</v>
+      </c>
+      <c r="B50">
+        <v>308</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>204</v>
+      </c>
+      <c r="B51">
+        <v>311</v>
+      </c>
+      <c r="C51">
+        <v>0.1614</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <v>312</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>207</v>
+      </c>
+      <c r="B53">
+        <v>302</v>
+      </c>
+      <c r="C53">
+        <v>0.0081</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>207</v>
+      </c>
+      <c r="B54">
+        <v>307</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>207</v>
+      </c>
+      <c r="B55">
+        <v>308</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>207</v>
+      </c>
+      <c r="B56">
+        <v>311</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>207</v>
+      </c>
+      <c r="B57">
+        <v>312</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>302</v>
+      </c>
+      <c r="B58">
+        <v>307</v>
+      </c>
+      <c r="C58">
+        <v>0.3474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>302</v>
+      </c>
+      <c r="B59">
+        <v>308</v>
+      </c>
+      <c r="C59">
+        <v>0.0641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>302</v>
+      </c>
+      <c r="B60">
+        <v>311</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>302</v>
+      </c>
+      <c r="B61">
+        <v>312</v>
+      </c>
+      <c r="C61">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>307</v>
+      </c>
+      <c r="B62">
+        <v>308</v>
+      </c>
+      <c r="C62">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>307</v>
+      </c>
+      <c r="B63">
+        <v>311</v>
+      </c>
+      <c r="C63">
+        <v>0.08169999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>307</v>
+      </c>
+      <c r="B64">
+        <v>312</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>308</v>
+      </c>
+      <c r="B65">
+        <v>311</v>
+      </c>
+      <c r="C65">
+        <v>0.0151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>308</v>
+      </c>
+      <c r="B66">
+        <v>312</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>311</v>
+      </c>
+      <c r="B67">
+        <v>312</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
